--- a/public/CONTRATACION_20210131.xlsx
+++ b/public/CONTRATACION_20210131.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABIOROJAS\Downloads\yopal-testing\examples-dicc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.rojas\code\produccion\csv-analyzer\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D9BA0AF-C804-4C76-BDE7-D134C69AB671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB83FCDB-44B3-42DD-8B8C-2848EEEECC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96587358-37B2-4FD4-9B81-C00699328CB3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21432" windowHeight="11520" xr2:uid="{96587358-37B2-4FD4-9B81-C00699328CB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>Anio</t>
   </si>
@@ -69,9 +60,6 @@
     <t>Nombre_Del_Contratista</t>
   </si>
   <si>
-    <t>Nit_O_Cedula_Del_Contratista</t>
-  </si>
-  <si>
     <t>Direccion_Domicilio_Principal</t>
   </si>
   <si>
@@ -129,9 +117,6 @@
     <t>Tipo_Vinculacion_Interventor_O_Supervisor</t>
   </si>
   <si>
-    <t>Fecha_Aprobacion_Garantía_Unica</t>
-  </si>
-  <si>
     <t>Fecha_Iniciacion_Contrato</t>
   </si>
   <si>
@@ -174,9 +159,6 @@
     <t>Fecha_Terminacion_Contrato</t>
   </si>
   <si>
-    <t>Fecha_Acta_Liquidación</t>
-  </si>
-  <si>
     <t>Estado_Contrato</t>
   </si>
   <si>
@@ -238,6 +220,24 @@
   </si>
   <si>
     <t>En ejecución</t>
+  </si>
+  <si>
+    <t>Identificacion_Del_Contratista</t>
+  </si>
+  <si>
+    <t>Fecha_Acta_Liquidacion</t>
+  </si>
+  <si>
+    <t>Fecha_Aprobacion_Garantia_Unica</t>
+  </si>
+  <si>
+    <t>proviene_recurso_de_reactivacion</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -609,65 +609,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA6F8F9-33A2-485E-8BE6-8A38ACF06A09}">
-  <dimension ref="A1:AW2"/>
+  <dimension ref="A1:AX2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="6" max="6" width="41.85546875" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" customWidth="1"/>
-    <col min="8" max="8" width="42.42578125" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="30.85546875" customWidth="1"/>
-    <col min="11" max="11" width="36.28515625" customWidth="1"/>
-    <col min="12" max="12" width="36.85546875" customWidth="1"/>
-    <col min="13" max="13" width="29.28515625" customWidth="1"/>
+    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.5546875" customWidth="1"/>
+    <col min="5" max="5" width="29.44140625" customWidth="1"/>
+    <col min="6" max="6" width="41.88671875" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="42.44140625" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="30.88671875" customWidth="1"/>
+    <col min="11" max="11" width="36.33203125" customWidth="1"/>
+    <col min="12" max="12" width="36.88671875" customWidth="1"/>
+    <col min="13" max="13" width="29.33203125" customWidth="1"/>
     <col min="14" max="14" width="26" customWidth="1"/>
     <col min="15" max="15" width="42" customWidth="1"/>
-    <col min="16" max="16" width="31.85546875" customWidth="1"/>
-    <col min="17" max="17" width="32.5703125" customWidth="1"/>
-    <col min="18" max="18" width="30.5703125" customWidth="1"/>
-    <col min="19" max="19" width="31.28515625" customWidth="1"/>
-    <col min="20" max="20" width="34.28515625" customWidth="1"/>
-    <col min="21" max="21" width="28.140625" customWidth="1"/>
-    <col min="22" max="22" width="30.85546875" customWidth="1"/>
-    <col min="23" max="23" width="28.28515625" customWidth="1"/>
-    <col min="24" max="24" width="37.42578125" customWidth="1"/>
-    <col min="25" max="25" width="40.42578125" customWidth="1"/>
-    <col min="26" max="26" width="43.7109375" customWidth="1"/>
-    <col min="27" max="27" width="51.5703125" customWidth="1"/>
+    <col min="16" max="16" width="31.88671875" customWidth="1"/>
+    <col min="17" max="17" width="32.5546875" customWidth="1"/>
+    <col min="18" max="18" width="30.5546875" customWidth="1"/>
+    <col min="19" max="19" width="31.33203125" customWidth="1"/>
+    <col min="20" max="20" width="34.33203125" customWidth="1"/>
+    <col min="21" max="21" width="28.109375" customWidth="1"/>
+    <col min="22" max="22" width="30.88671875" customWidth="1"/>
+    <col min="23" max="23" width="28.33203125" customWidth="1"/>
+    <col min="24" max="24" width="37.44140625" customWidth="1"/>
+    <col min="25" max="25" width="40.44140625" customWidth="1"/>
+    <col min="26" max="26" width="43.6640625" customWidth="1"/>
+    <col min="27" max="27" width="51.5546875" customWidth="1"/>
     <col min="28" max="28" width="43" customWidth="1"/>
-    <col min="29" max="29" width="45.42578125" customWidth="1"/>
-    <col min="30" max="30" width="44.28515625" customWidth="1"/>
-    <col min="31" max="31" width="52.28515625" customWidth="1"/>
-    <col min="32" max="32" width="45.85546875" customWidth="1"/>
-    <col min="33" max="33" width="30.28515625" customWidth="1"/>
-    <col min="34" max="34" width="28.85546875" customWidth="1"/>
+    <col min="29" max="29" width="45.44140625" customWidth="1"/>
+    <col min="30" max="30" width="44.33203125" customWidth="1"/>
+    <col min="31" max="31" width="52.33203125" customWidth="1"/>
+    <col min="32" max="32" width="45.88671875" customWidth="1"/>
+    <col min="33" max="33" width="30.33203125" customWidth="1"/>
+    <col min="34" max="34" width="28.88671875" customWidth="1"/>
     <col min="35" max="35" width="26" customWidth="1"/>
-    <col min="36" max="36" width="27.7109375" customWidth="1"/>
-    <col min="37" max="37" width="30.28515625" customWidth="1"/>
+    <col min="36" max="36" width="27.6640625" customWidth="1"/>
+    <col min="37" max="37" width="30.33203125" customWidth="1"/>
     <col min="38" max="38" width="27" customWidth="1"/>
-    <col min="39" max="39" width="28.28515625" customWidth="1"/>
-    <col min="40" max="40" width="35.140625" customWidth="1"/>
-    <col min="41" max="41" width="30.5703125" customWidth="1"/>
-    <col min="42" max="42" width="27.140625" customWidth="1"/>
-    <col min="43" max="43" width="27.28515625" customWidth="1"/>
-    <col min="44" max="44" width="31.28515625" customWidth="1"/>
+    <col min="39" max="39" width="28.33203125" customWidth="1"/>
+    <col min="40" max="40" width="35.109375" customWidth="1"/>
+    <col min="41" max="41" width="30.5546875" customWidth="1"/>
+    <col min="42" max="42" width="27.109375" customWidth="1"/>
+    <col min="43" max="43" width="27.33203125" customWidth="1"/>
+    <col min="44" max="44" width="31.33203125" customWidth="1"/>
     <col min="45" max="45" width="25" customWidth="1"/>
-    <col min="46" max="46" width="39.28515625" customWidth="1"/>
-    <col min="47" max="47" width="32.5703125" customWidth="1"/>
-    <col min="48" max="48" width="27.42578125" customWidth="1"/>
-    <col min="49" max="49" width="17.42578125" customWidth="1"/>
+    <col min="46" max="46" width="39.33203125" customWidth="1"/>
+    <col min="47" max="47" width="32.5546875" customWidth="1"/>
+    <col min="48" max="48" width="27.44140625" customWidth="1"/>
+    <col min="49" max="49" width="17.44140625" customWidth="1"/>
+    <col min="50" max="50" width="35.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -702,121 +703,124 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>48</v>
+      <c r="AX1" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2018</v>
       </c>
@@ -824,106 +828,106 @@
         <v>900900081</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1">
         <v>1000000.35</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L2" s="1">
         <v>900900081</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N2" s="1">
         <v>3105557777</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="S2" s="1">
         <v>201800513</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="U2" s="1">
         <v>1000000.35</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Y2" s="1">
         <v>1000000.35</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1">
         <v>900900081</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AE2" s="1"/>
       <c r="AF2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AH2" s="1">
         <v>180</v>
       </c>
       <c r="AI2" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AK2" s="1">
         <v>1000000.35</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AM2" s="1">
         <v>2</v>
@@ -947,15 +951,20 @@
         <v>1000000.35</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AU2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AW2" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
